--- a/va_facility_data_2025-02-20/Harlingen VA Clinic-Treasure Hills - Facility Data.xlsx"; filename*=UTF-8''Harlingen%20VA%20Clinic-Treasure%20Hills%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Harlingen VA Clinic-Treasure Hills - Facility Data.xlsx"; filename*=UTF-8''Harlingen%20VA%20Clinic-Treasure%20Hills%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Re650c01eb0a44177a6a11874385d1d3b"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rfe1becfb4ec947c5ab6aa7c49bf241f1"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R1a11473accad42d0a5ae536182065530"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R0a2048899dfe4f9cb3c5507f617e7214"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R00b887d4359e4f6f83f3d7876f611032"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rbcefcf8b56b747ecb1391109df86b69c"/>
   </x:sheets>
 </x:workbook>
 </file>
